--- a/Networking.xlsx
+++ b/Networking.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\thega\Desktop\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{64766DA3-A2D1-4AED-B812-67AAC22C045D}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{786FDAE0-7F84-415F-92C4-92CF9FF17656}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="372" yWindow="3336" windowWidth="14820" windowHeight="9396" xr2:uid="{BDD67094-E943-4160-B741-A280EF20F6C0}"/>
+    <workbookView xWindow="-96" yWindow="0" windowWidth="15552" windowHeight="16656" xr2:uid="{BDD67094-E943-4160-B741-A280EF20F6C0}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -36,7 +36,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="108" uniqueCount="76">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="132" uniqueCount="88">
   <si>
     <t>Device</t>
   </si>
@@ -98,21 +98,9 @@
     <t>NA</t>
   </si>
   <si>
-    <t>DR1A-LEC-PC</t>
-  </si>
-  <si>
-    <t>DR1B-LEC-PC</t>
-  </si>
-  <si>
     <t>NIC</t>
   </si>
   <si>
-    <t>103.31.24.194</t>
-  </si>
-  <si>
-    <t>103.31.24.2</t>
-  </si>
-  <si>
     <t>BASEMENT-DNS</t>
   </si>
   <si>
@@ -264,13 +252,61 @@
   </si>
   <si>
     <t>103.31.24.251</t>
+  </si>
+  <si>
+    <t>DOVER-SW-D</t>
+  </si>
+  <si>
+    <t>VLAN 40</t>
+  </si>
+  <si>
+    <t>103.31.24.65</t>
+  </si>
+  <si>
+    <t>VLAN 50</t>
+  </si>
+  <si>
+    <t>VLAN 60</t>
+  </si>
+  <si>
+    <t xml:space="preserve">103.31.24.129 </t>
+  </si>
+  <si>
+    <t>103.31.24.225</t>
+  </si>
+  <si>
+    <t>Gi1/1/1</t>
+  </si>
+  <si>
+    <t>103.31.24.246</t>
+  </si>
+  <si>
+    <t>Gi0/0</t>
+  </si>
+  <si>
+    <t>103.31.24.245</t>
+  </si>
+  <si>
+    <t>Gi0/1</t>
+  </si>
+  <si>
+    <t>103.31.24.250</t>
+  </si>
+  <si>
+    <t>103.31.24.241</t>
+  </si>
+  <si>
+    <t xml:space="preserve">103.31.24.249 </t>
+  </si>
+  <si>
+    <t>103.31.24.242</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="2" x14ac:knownFonts="1">
+  <fonts count="3" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -282,6 +318,13 @@
       <b/>
       <sz val="11"/>
       <color theme="1"/>
+      <name val="Aptos Narrow"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF000000"/>
       <name val="Aptos Narrow"/>
       <family val="2"/>
       <scheme val="minor"/>
@@ -322,7 +365,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="4">
+  <cellXfs count="5">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
@@ -333,6 +376,7 @@
     <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center" wrapText="1"/>
     </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -667,10 +711,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{BF27DE22-4205-4C3B-AECD-D8A417FE1DF2}">
-  <dimension ref="A1:H29"/>
+  <dimension ref="A1:H28"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A24" workbookViewId="0">
-      <selection activeCell="J26" sqref="J26"/>
+    <sheetView tabSelected="1" topLeftCell="A21" zoomScale="130" zoomScaleNormal="130" workbookViewId="0">
+      <selection activeCell="B5" sqref="B5"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -758,74 +802,55 @@
       </c>
     </row>
     <row r="5" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A5" t="s">
-        <v>20</v>
-      </c>
-      <c r="B5" t="s">
-        <v>22</v>
-      </c>
-      <c r="C5" t="s">
-        <v>23</v>
-      </c>
-      <c r="D5" t="s">
-        <v>16</v>
-      </c>
-      <c r="E5" t="s">
-        <v>15</v>
-      </c>
-      <c r="F5" t="s">
-        <v>8</v>
+      <c r="B5" s="4" t="s">
+        <v>79</v>
+      </c>
+      <c r="C5" s="4" t="s">
+        <v>80</v>
+      </c>
+      <c r="D5" s="4" t="s">
+        <v>47</v>
       </c>
     </row>
     <row r="6" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A6" t="s">
-        <v>21</v>
-      </c>
-      <c r="B6" t="s">
-        <v>22</v>
-      </c>
-      <c r="C6" t="s">
-        <v>24</v>
-      </c>
-      <c r="D6" t="s">
-        <v>14</v>
-      </c>
-      <c r="E6" t="s">
-        <v>13</v>
-      </c>
-      <c r="F6" t="s">
-        <v>9</v>
-      </c>
+      <c r="A6" s="4" t="s">
+        <v>68</v>
+      </c>
+      <c r="B6" s="4" t="s">
+        <v>81</v>
+      </c>
+      <c r="C6" s="4" t="s">
+        <v>82</v>
+      </c>
+      <c r="D6" s="4" t="s">
+        <v>47</v>
+      </c>
+      <c r="E6" s="4"/>
+      <c r="F6" s="4"/>
     </row>
     <row r="7" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A7" t="s">
-        <v>25</v>
-      </c>
-      <c r="B7" t="s">
-        <v>22</v>
-      </c>
-      <c r="C7" t="s">
-        <v>27</v>
-      </c>
-      <c r="D7" t="s">
-        <v>18</v>
-      </c>
-      <c r="E7" t="s">
-        <v>17</v>
-      </c>
-      <c r="F7" t="s">
-        <v>10</v>
-      </c>
+      <c r="A7" s="4"/>
+      <c r="B7" s="4" t="s">
+        <v>83</v>
+      </c>
+      <c r="C7" s="4" t="s">
+        <v>84</v>
+      </c>
+      <c r="D7" s="4" t="s">
+        <v>47</v>
+      </c>
+      <c r="E7" s="4"/>
+      <c r="F7" s="4"/>
     </row>
     <row r="8" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A8" t="s">
-        <v>26</v>
+        <v>21</v>
       </c>
       <c r="B8" t="s">
-        <v>22</v>
+        <v>20</v>
       </c>
       <c r="C8" t="s">
-        <v>28</v>
+        <v>23</v>
       </c>
       <c r="D8" t="s">
         <v>18</v>
@@ -837,38 +862,174 @@
         <v>10</v>
       </c>
     </row>
-    <row r="20" spans="1:8" ht="28.8" x14ac:dyDescent="0.3">
-      <c r="A20" s="1" t="s">
+    <row r="9" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A9" t="s">
+        <v>22</v>
+      </c>
+      <c r="B9" t="s">
+        <v>20</v>
+      </c>
+      <c r="C9" t="s">
+        <v>24</v>
+      </c>
+      <c r="D9" t="s">
+        <v>18</v>
+      </c>
+      <c r="E9" t="s">
+        <v>17</v>
+      </c>
+      <c r="F9" t="s">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="10" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A10" t="s">
+        <v>72</v>
+      </c>
+      <c r="B10" t="s">
+        <v>73</v>
+      </c>
+      <c r="C10" t="s">
+        <v>74</v>
+      </c>
+      <c r="D10" t="s">
+        <v>33</v>
+      </c>
+      <c r="E10" t="s">
+        <v>19</v>
+      </c>
+      <c r="F10" t="s">
+        <v>34</v>
+      </c>
+    </row>
+    <row r="11" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="B11" t="s">
+        <v>75</v>
+      </c>
+      <c r="C11" t="s">
+        <v>77</v>
+      </c>
+      <c r="D11" t="s">
+        <v>33</v>
+      </c>
+      <c r="E11" t="s">
+        <v>19</v>
+      </c>
+      <c r="F11" t="s">
+        <v>36</v>
+      </c>
+    </row>
+    <row r="12" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="B12" t="s">
+        <v>76</v>
+      </c>
+      <c r="C12" t="s">
+        <v>78</v>
+      </c>
+      <c r="D12" t="s">
+        <v>18</v>
+      </c>
+      <c r="E12" t="s">
+        <v>19</v>
+      </c>
+      <c r="F12" t="s">
+        <v>40</v>
+      </c>
+    </row>
+    <row r="13" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="B13" t="s">
+        <v>79</v>
+      </c>
+      <c r="C13" t="s">
+        <v>87</v>
+      </c>
+      <c r="D13" t="s">
+        <v>47</v>
+      </c>
+    </row>
+    <row r="14" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A14" t="s">
+        <v>64</v>
+      </c>
+      <c r="B14" t="s">
+        <v>81</v>
+      </c>
+      <c r="C14" t="s">
+        <v>85</v>
+      </c>
+      <c r="D14" t="s">
+        <v>47</v>
+      </c>
+    </row>
+    <row r="15" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="B15" t="s">
+        <v>83</v>
+      </c>
+      <c r="C15" t="s">
+        <v>86</v>
+      </c>
+      <c r="D15" t="s">
+        <v>47</v>
+      </c>
+    </row>
+    <row r="19" spans="1:8" ht="28.8" x14ac:dyDescent="0.3">
+      <c r="A19" s="1" t="s">
+        <v>25</v>
+      </c>
+      <c r="B19" s="1" t="s">
+        <v>26</v>
+      </c>
+      <c r="C19" s="1" t="s">
+        <v>27</v>
+      </c>
+      <c r="D19" s="1" t="s">
+        <v>28</v>
+      </c>
+      <c r="E19" s="1" t="s">
         <v>29</v>
       </c>
-      <c r="B20" s="1" t="s">
+      <c r="F19" s="1" t="s">
         <v>30</v>
       </c>
-      <c r="C20" s="1" t="s">
+      <c r="G19" s="1" t="s">
+        <v>48</v>
+      </c>
+      <c r="H19" s="1" t="s">
+        <v>49</v>
+      </c>
+    </row>
+    <row r="20" spans="1:8" ht="57.6" x14ac:dyDescent="0.3">
+      <c r="A20" s="3" t="s">
+        <v>9</v>
+      </c>
+      <c r="B20" s="2">
+        <v>62</v>
+      </c>
+      <c r="C20" s="2">
+        <v>62</v>
+      </c>
+      <c r="D20" s="2" t="s">
         <v>31</v>
       </c>
-      <c r="D20" s="1" t="s">
+      <c r="E20" s="2" t="s">
         <v>32</v>
       </c>
-      <c r="E20" s="1" t="s">
+      <c r="F20" s="2" t="s">
         <v>33</v>
       </c>
-      <c r="F20" s="1" t="s">
-        <v>34</v>
-      </c>
-      <c r="G20" s="1" t="s">
-        <v>52</v>
-      </c>
-      <c r="H20" s="1" t="s">
-        <v>53</v>
+      <c r="G20" s="2" t="s">
+        <v>50</v>
+      </c>
+      <c r="H20" s="2" t="s">
+        <v>51</v>
       </c>
     </row>
     <row r="21" spans="1:8" ht="57.6" x14ac:dyDescent="0.3">
       <c r="A21" s="3" t="s">
-        <v>9</v>
+        <v>34</v>
       </c>
       <c r="B21" s="2">
-        <v>62</v>
+        <v>38</v>
       </c>
       <c r="C21" s="2">
         <v>62</v>
@@ -877,21 +1038,21 @@
         <v>35</v>
       </c>
       <c r="E21" s="2" t="s">
-        <v>36</v>
+        <v>32</v>
       </c>
       <c r="F21" s="2" t="s">
-        <v>37</v>
+        <v>33</v>
       </c>
       <c r="G21" s="2" t="s">
-        <v>54</v>
+        <v>52</v>
       </c>
       <c r="H21" s="2" t="s">
-        <v>55</v>
+        <v>53</v>
       </c>
     </row>
     <row r="22" spans="1:8" ht="57.6" x14ac:dyDescent="0.3">
       <c r="A22" s="3" t="s">
-        <v>38</v>
+        <v>36</v>
       </c>
       <c r="B22" s="2">
         <v>38</v>
@@ -900,128 +1061,128 @@
         <v>62</v>
       </c>
       <c r="D22" s="2" t="s">
-        <v>39</v>
+        <v>37</v>
       </c>
       <c r="E22" s="2" t="s">
-        <v>36</v>
+        <v>32</v>
       </c>
       <c r="F22" s="2" t="s">
-        <v>37</v>
+        <v>33</v>
       </c>
       <c r="G22" s="2" t="s">
-        <v>56</v>
+        <v>54</v>
       </c>
       <c r="H22" s="2" t="s">
-        <v>57</v>
+        <v>55</v>
       </c>
     </row>
     <row r="23" spans="1:8" ht="57.6" x14ac:dyDescent="0.3">
       <c r="A23" s="3" t="s">
-        <v>40</v>
+        <v>8</v>
       </c>
       <c r="B23" s="2">
+        <v>26</v>
+      </c>
+      <c r="C23" s="2">
+        <v>30</v>
+      </c>
+      <c r="D23" s="2" t="s">
         <v>38</v>
       </c>
-      <c r="C23" s="2">
-        <v>62</v>
-      </c>
-      <c r="D23" s="2" t="s">
-        <v>41</v>
-      </c>
       <c r="E23" s="2" t="s">
-        <v>36</v>
+        <v>39</v>
       </c>
       <c r="F23" s="2" t="s">
-        <v>37</v>
+        <v>16</v>
       </c>
       <c r="G23" s="2" t="s">
-        <v>58</v>
+        <v>56</v>
       </c>
       <c r="H23" s="2" t="s">
-        <v>59</v>
+        <v>57</v>
       </c>
     </row>
     <row r="24" spans="1:8" ht="57.6" x14ac:dyDescent="0.3">
       <c r="A24" s="3" t="s">
-        <v>8</v>
+        <v>40</v>
       </c>
       <c r="B24" s="2">
-        <v>26</v>
+        <v>6</v>
       </c>
       <c r="C24" s="2">
-        <v>30</v>
+        <v>6</v>
       </c>
       <c r="D24" s="2" t="s">
+        <v>41</v>
+      </c>
+      <c r="E24" s="2" t="s">
         <v>42</v>
       </c>
-      <c r="E24" s="2" t="s">
-        <v>43</v>
-      </c>
       <c r="F24" s="2" t="s">
-        <v>16</v>
+        <v>18</v>
       </c>
       <c r="G24" s="2" t="s">
-        <v>60</v>
+        <v>58</v>
       </c>
       <c r="H24" s="2" t="s">
-        <v>61</v>
+        <v>59</v>
       </c>
     </row>
     <row r="25" spans="1:8" ht="57.6" x14ac:dyDescent="0.3">
       <c r="A25" s="3" t="s">
-        <v>44</v>
+        <v>10</v>
       </c>
       <c r="B25" s="2">
-        <v>6</v>
+        <v>3</v>
       </c>
       <c r="C25" s="2">
         <v>6</v>
       </c>
       <c r="D25" s="2" t="s">
-        <v>45</v>
+        <v>43</v>
       </c>
       <c r="E25" s="2" t="s">
-        <v>46</v>
+        <v>42</v>
       </c>
       <c r="F25" s="2" t="s">
         <v>18</v>
       </c>
       <c r="G25" s="2" t="s">
-        <v>62</v>
+        <v>60</v>
       </c>
       <c r="H25" s="2" t="s">
-        <v>63</v>
+        <v>61</v>
       </c>
     </row>
     <row r="26" spans="1:8" ht="57.6" x14ac:dyDescent="0.3">
       <c r="A26" s="3" t="s">
-        <v>10</v>
+        <v>64</v>
       </c>
       <c r="B26" s="2">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="C26" s="2">
-        <v>6</v>
+        <v>2</v>
       </c>
       <c r="D26" s="2" t="s">
-        <v>47</v>
+        <v>45</v>
       </c>
       <c r="E26" s="2" t="s">
         <v>46</v>
       </c>
       <c r="F26" s="2" t="s">
-        <v>18</v>
+        <v>47</v>
       </c>
       <c r="G26" s="2" t="s">
-        <v>64</v>
+        <v>62</v>
       </c>
       <c r="H26" s="2" t="s">
-        <v>65</v>
+        <v>63</v>
       </c>
     </row>
     <row r="27" spans="1:8" ht="57.6" x14ac:dyDescent="0.3">
       <c r="A27" s="3" t="s">
-        <v>48</v>
+        <v>68</v>
       </c>
       <c r="B27" s="2">
         <v>2</v>
@@ -1030,13 +1191,13 @@
         <v>2</v>
       </c>
       <c r="D27" s="2" t="s">
-        <v>49</v>
+        <v>65</v>
       </c>
       <c r="E27" s="2" t="s">
-        <v>50</v>
+        <v>46</v>
       </c>
       <c r="F27" s="2" t="s">
-        <v>51</v>
+        <v>47</v>
       </c>
       <c r="G27" s="2" t="s">
         <v>66</v>
@@ -1047,10 +1208,10 @@
     </row>
     <row r="28" spans="1:8" ht="57.6" x14ac:dyDescent="0.3">
       <c r="A28" s="3" t="s">
-        <v>68</v>
+        <v>44</v>
       </c>
       <c r="B28" s="2">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="C28" s="2">
         <v>2</v>
@@ -1059,42 +1220,16 @@
         <v>69</v>
       </c>
       <c r="E28" s="2" t="s">
-        <v>50</v>
+        <v>46</v>
       </c>
       <c r="F28" s="2" t="s">
-        <v>51</v>
+        <v>47</v>
       </c>
       <c r="G28" s="2" t="s">
         <v>70</v>
       </c>
       <c r="H28" s="2" t="s">
         <v>71</v>
-      </c>
-    </row>
-    <row r="29" spans="1:8" ht="57.6" x14ac:dyDescent="0.3">
-      <c r="A29" s="3" t="s">
-        <v>72</v>
-      </c>
-      <c r="B29" s="2">
-        <v>1</v>
-      </c>
-      <c r="C29" s="2">
-        <v>2</v>
-      </c>
-      <c r="D29" s="2" t="s">
-        <v>73</v>
-      </c>
-      <c r="E29" s="2" t="s">
-        <v>50</v>
-      </c>
-      <c r="F29" s="2" t="s">
-        <v>51</v>
-      </c>
-      <c r="G29" s="2" t="s">
-        <v>74</v>
-      </c>
-      <c r="H29" s="2" t="s">
-        <v>75</v>
       </c>
     </row>
   </sheetData>
